--- a/data/excel/accessRights.xlsx
+++ b/data/excel/accessRights.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\moon.ntkcz.cz\petka\NUŠL\SW\INVENIO 3\taxonomie\taxonomies_od_Dana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\NUŠL\SW\INVENIO 3\taxonomie\současné_hotové\aktualne_pouzite_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10780" windowHeight="5850" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="accessRights" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>slug</t>
   </si>
   <si>
-    <t>relatedURI_coar</t>
-  </si>
-  <si>
     <t>c_abf2</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>http://purl.org/coar/access_right/c_14cb</t>
+  </si>
+  <si>
+    <t>relatedURI_COAR</t>
   </si>
 </sst>
 </file>
@@ -519,20 +519,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" customWidth="1"/>
-    <col min="6" max="6" width="54.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -568,79 +568,79 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="F9" s="4"/>
     </row>
